--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.category.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0A517D-00A1-3D4A-9E44-6AB9226AF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB78461-A11A-AF4C-9600-2A29400F162C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="68660" yWindow="-7920" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
   <si>
     <t>key</t>
   </si>
@@ -653,6 +656,38 @@
   <si>
     <t>JSON:plugin/ke/rule.form/x.category.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.category.directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.category.directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.category.directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/document/start/:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9c342f92-ca55-4d6b-90af-141661cb4659</t>
+  </si>
+  <si>
+    <t>086d23da-6542-46e2-88f9-e848d7df5200</t>
+  </si>
+  <si>
+    <t>e2348467-9bd1-4e6c-8f3b-f36a7491979b</t>
+  </si>
+  <si>
+    <t>01386f5d-cc09-4322-a127-4ca7f8de9e94</t>
   </si>
 </sst>
 </file>
@@ -831,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,6 +922,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,14 +939,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1276,14 +1314,14 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1">
       <c r="A3" s="10" t="s">
@@ -1323,7 +1361,7 @@
       <c r="C5" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1337,7 +1375,7 @@
       <c r="C6" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1351,7 +1389,7 @@
       <c r="C7" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1365,7 +1403,7 @@
       <c r="C8" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1379,7 +1417,7 @@
       <c r="C9" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1393,99 +1431,94 @@
       <c r="C10" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+    <row r="11" spans="1:9" s="22" customFormat="1">
+      <c r="A11" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>171</v>
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>176</v>
+      <c r="A16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>176</v>
@@ -1495,16 +1528,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>176</v>
@@ -1514,16 +1547,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>176</v>
@@ -1533,16 +1566,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>176</v>
@@ -1552,16 +1585,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>176</v>
@@ -1569,693 +1602,700 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I29" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="19" t="str">
-        <f t="shared" ref="B29:B43" si="0">A49</f>
-        <v>4db2ea00-1d80-4c5f-8fb6-d7a2e744eaba</v>
-      </c>
-      <c r="C29" s="19" t="str">
-        <f>A16</f>
-        <v>ba888e95-e578-44bc-af49-c91c1d665564</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="17">
-        <v>1</v>
-      </c>
-      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="19" t="str">
+        <f t="shared" ref="B30:B45" si="0">A51</f>
+        <v>4db2ea00-1d80-4c5f-8fb6-d7a2e744eaba</v>
+      </c>
+      <c r="C30" s="19" t="str">
+        <f>A17</f>
+        <v>ba888e95-e578-44bc-af49-c91c1d665564</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>8f92165d-8797-4e0d-bf4c-a8ac4af2f258</v>
       </c>
-      <c r="C30" s="19" t="str">
-        <f>A17</f>
+      <c r="C31" s="19" t="str">
+        <f>A18</f>
         <v>e0f72061-677e-44da-8f9c-dac8f3fbf155</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>4</v>
       </c>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="15" t="s">
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="19" t="str">
+      <c r="B32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>52919f18-5682-4701-b27c-4be4c36473cf</v>
       </c>
-      <c r="C31" s="19" t="str">
-        <f>A18</f>
+      <c r="C32" s="19" t="str">
+        <f>A19</f>
         <v>e259330d-667e-4861-aa69-e6db50d74a6d</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G32" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>8</v>
       </c>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="15" t="s">
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="19" t="str">
+      <c r="B33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>41c4a9cf-3238-42e2-b0d6-03ae83349758</v>
       </c>
-      <c r="C32" s="19" t="str">
-        <f>A19</f>
+      <c r="C33" s="19" t="str">
+        <f>A20</f>
         <v>ad0d0989-dfcd-416c-8950-779506d8bf02</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>12</v>
       </c>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="15" t="s">
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="19" t="str">
+      <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>de5b676e-6e25-4327-8274-ee41003f55b5</v>
       </c>
-      <c r="C33" s="19" t="str">
-        <f>A16</f>
+      <c r="C34" s="19" t="str">
+        <f>A17</f>
         <v>ba888e95-e578-44bc-af49-c91c1d665564</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F34" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <v>1</v>
       </c>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="15" t="s">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="19" t="str">
+      <c r="B35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>458f077b-0ac5-4b5e-94d5-7188a021f882</v>
       </c>
-      <c r="C34" s="19" t="str">
-        <f>A18</f>
+      <c r="C35" s="19" t="str">
+        <f>A19</f>
         <v>e259330d-667e-4861-aa69-e6db50d74a6d</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>8</v>
       </c>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="15" t="s">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="19" t="str">
+      <c r="B36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>6d319179-f1a2-431c-b35d-1e8206b41e4f</v>
       </c>
-      <c r="C35" s="19" t="str">
-        <f>A19</f>
+      <c r="C36" s="19" t="str">
+        <f>A20</f>
         <v>ad0d0989-dfcd-416c-8950-779506d8bf02</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>12</v>
       </c>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="15" t="s">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="19" t="str">
+      <c r="B37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>7240198a-e7c1-4031-b59d-b118c04fd6ee</v>
       </c>
-      <c r="C36" s="19" t="str">
-        <f>A20</f>
+      <c r="C37" s="19" t="str">
+        <f>A21</f>
         <v>969aba12-96b6-417a-9a7b-f36d3dddebfa</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F37" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>3</v>
       </c>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="15" t="s">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="19" t="str">
+      <c r="B38" s="19" t="str">
         <f t="shared" si="0"/>
         <v>2b65a2f1-687d-4159-bf3e-2bd42419953a</v>
       </c>
-      <c r="C37" s="19" t="str">
-        <f>A20</f>
+      <c r="C38" s="19" t="str">
+        <f>A21</f>
         <v>969aba12-96b6-417a-9a7b-f36d3dddebfa</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F38" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <v>3</v>
       </c>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="15" t="s">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="19" t="str">
+      <c r="B39" s="19" t="str">
         <f t="shared" si="0"/>
         <v>581a2ca6-47b8-4cd9-931b-3f2fcc961d42</v>
       </c>
-      <c r="C38" s="19" t="str">
-        <f>A20</f>
+      <c r="C39" s="19" t="str">
+        <f>A21</f>
         <v>969aba12-96b6-417a-9a7b-f36d3dddebfa</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F39" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G39" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>11</v>
       </c>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="15" t="s">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="19" t="str">
+      <c r="B40" s="19" t="str">
         <f t="shared" si="0"/>
         <v>5c470d5e-3f13-4cfe-8ea1-d4ec55b659bc</v>
       </c>
-      <c r="C39" s="19" t="str">
-        <f>A21</f>
+      <c r="C40" s="19" t="str">
+        <f>A22</f>
         <v>a5e06e2e-ca3a-4042-a18c-bff9088136e3</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F40" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>5</v>
       </c>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="15" t="s">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="19" t="str">
+      <c r="B41" s="19" t="str">
         <f t="shared" si="0"/>
         <v>c7f7ab20-fbe6-476e-95c5-27c5394253ff</v>
       </c>
-      <c r="C40" s="19" t="str">
-        <f>A21</f>
+      <c r="C41" s="19" t="str">
+        <f>A22</f>
         <v>a5e06e2e-ca3a-4042-a18c-bff9088136e3</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E41" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F41" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G41" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>3</v>
       </c>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="15" t="s">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="19" t="str">
+      <c r="B42" s="19" t="str">
         <f t="shared" si="0"/>
         <v>3840f03f-5a04-41a8-8b78-b1672f08fcb7</v>
       </c>
-      <c r="C41" s="19" t="str">
-        <f>A16</f>
+      <c r="C42" s="19" t="str">
+        <f>A17</f>
         <v>ba888e95-e578-44bc-af49-c91c1d665564</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F42" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>1</v>
       </c>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="15" t="s">
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="19" t="str">
+      <c r="B43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>e8608b8f-a6b4-42fe-8ca3-bd1a5071a6a1</v>
       </c>
-      <c r="C42" s="19" t="str">
-        <f>A16</f>
+      <c r="C43" s="19" t="str">
+        <f>A17</f>
         <v>ba888e95-e578-44bc-af49-c91c1d665564</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F43" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G43" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>1</v>
       </c>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="15" t="s">
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="19" t="str">
+      <c r="B44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>ba47d50f-4b80-4115-abed-8fb61f271750</v>
       </c>
-      <c r="C43" s="19" t="str">
-        <f>A16</f>
+      <c r="C44" s="19" t="str">
+        <f>A17</f>
         <v>ba888e95-e578-44bc-af49-c91c1d665564</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F44" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G44" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>1</v>
       </c>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="3"/>
-      <c r="K44" s="4"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="3"/>
-      <c r="K45" s="4"/>
+      <c r="A45" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="19" t="str">
+        <f>A66</f>
+        <v>e2348467-9bd1-4e6c-8f3b-f36a7491979b</v>
+      </c>
+      <c r="C45" s="19" t="str">
+        <f>A23</f>
+        <v>086d23da-6542-46e2-88f9-e848d7df5200</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="17">
+        <v>2</v>
+      </c>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="3"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C48" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="10" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H49" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I49" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K49" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="12" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B50" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F50" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G50" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K50" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="17">
-        <v>1</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="17">
-        <v>4</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>176</v>
@@ -2264,25 +2304,29 @@
         <v>174</v>
       </c>
       <c r="G51" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
+      <c r="J51" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>176</v>
@@ -2291,25 +2335,25 @@
         <v>174</v>
       </c>
       <c r="G52" s="17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>176</v>
@@ -2318,25 +2362,25 @@
         <v>174</v>
       </c>
       <c r="G53" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>176</v>
@@ -2345,25 +2389,25 @@
         <v>174</v>
       </c>
       <c r="G54" s="17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>176</v>
@@ -2372,25 +2416,25 @@
         <v>174</v>
       </c>
       <c r="G55" s="17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>176</v>
@@ -2399,25 +2443,25 @@
         <v>174</v>
       </c>
       <c r="G56" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>176</v>
@@ -2426,25 +2470,25 @@
         <v>174</v>
       </c>
       <c r="G57" s="17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>176</v>
@@ -2453,25 +2497,25 @@
         <v>174</v>
       </c>
       <c r="G58" s="17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>176</v>
@@ -2480,25 +2524,25 @@
         <v>174</v>
       </c>
       <c r="G59" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>176</v>
@@ -2507,25 +2551,25 @@
         <v>174</v>
       </c>
       <c r="G60" s="17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>176</v>
@@ -2534,25 +2578,25 @@
         <v>174</v>
       </c>
       <c r="G61" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>176</v>
@@ -2561,25 +2605,25 @@
         <v>174</v>
       </c>
       <c r="G62" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-    </row>
-    <row r="63" spans="1:11" s="22" customFormat="1">
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>176</v>
@@ -2592,31 +2636,103 @@
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="3"/>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="4"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="K65" s="4"/>
+      <c r="A64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+    </row>
+    <row r="65" spans="1:11" s="22" customFormat="1">
+      <c r="A65" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="K67" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C27:I27"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C48:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.category.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.category.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB78461-A11A-AF4C-9600-2A29400F162C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C213E42-ADFF-834B-97F4-DA66B75ACBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68660" yWindow="-7920" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="198">
   <si>
     <t>key</t>
   </si>
@@ -656,38 +656,6 @@
   <si>
     <t>JSON:plugin/ke/rule.form/x.category.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.category.directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.category.directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.category.directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/document/start/:type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9c342f92-ca55-4d6b-90af-141661cb4659</t>
-  </si>
-  <si>
-    <t>086d23da-6542-46e2-88f9-e848d7df5200</t>
-  </si>
-  <si>
-    <t>e2348467-9bd1-4e6c-8f3b-f36a7491979b</t>
-  </si>
-  <si>
-    <t>01386f5d-cc09-4322-a127-4ca7f8de9e94</t>
   </si>
 </sst>
 </file>
@@ -866,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,9 +908,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1289,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1435,20 +1400,6 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="22" customFormat="1">
-      <c r="A11" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
@@ -1620,23 +1571,6 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
@@ -1718,7 +1652,7 @@
         <v>133</v>
       </c>
       <c r="B30" s="19" t="str">
-        <f t="shared" ref="B30:B45" si="0">A51</f>
+        <f>A51</f>
         <v>4db2ea00-1d80-4c5f-8fb6-d7a2e744eaba</v>
       </c>
       <c r="C30" s="19" t="str">
@@ -1747,7 +1681,7 @@
         <v>134</v>
       </c>
       <c r="B31" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A52</f>
         <v>8f92165d-8797-4e0d-bf4c-a8ac4af2f258</v>
       </c>
       <c r="C31" s="19" t="str">
@@ -1776,7 +1710,7 @@
         <v>135</v>
       </c>
       <c r="B32" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A53</f>
         <v>52919f18-5682-4701-b27c-4be4c36473cf</v>
       </c>
       <c r="C32" s="19" t="str">
@@ -1805,7 +1739,7 @@
         <v>136</v>
       </c>
       <c r="B33" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A54</f>
         <v>41c4a9cf-3238-42e2-b0d6-03ae83349758</v>
       </c>
       <c r="C33" s="19" t="str">
@@ -1834,7 +1768,7 @@
         <v>137</v>
       </c>
       <c r="B34" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A55</f>
         <v>de5b676e-6e25-4327-8274-ee41003f55b5</v>
       </c>
       <c r="C34" s="19" t="str">
@@ -1863,7 +1797,7 @@
         <v>138</v>
       </c>
       <c r="B35" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A56</f>
         <v>458f077b-0ac5-4b5e-94d5-7188a021f882</v>
       </c>
       <c r="C35" s="19" t="str">
@@ -1892,7 +1826,7 @@
         <v>139</v>
       </c>
       <c r="B36" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A57</f>
         <v>6d319179-f1a2-431c-b35d-1e8206b41e4f</v>
       </c>
       <c r="C36" s="19" t="str">
@@ -1921,7 +1855,7 @@
         <v>140</v>
       </c>
       <c r="B37" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A58</f>
         <v>7240198a-e7c1-4031-b59d-b118c04fd6ee</v>
       </c>
       <c r="C37" s="19" t="str">
@@ -1950,7 +1884,7 @@
         <v>141</v>
       </c>
       <c r="B38" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A59</f>
         <v>2b65a2f1-687d-4159-bf3e-2bd42419953a</v>
       </c>
       <c r="C38" s="19" t="str">
@@ -1979,7 +1913,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A60</f>
         <v>581a2ca6-47b8-4cd9-931b-3f2fcc961d42</v>
       </c>
       <c r="C39" s="19" t="str">
@@ -2008,7 +1942,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A61</f>
         <v>5c470d5e-3f13-4cfe-8ea1-d4ec55b659bc</v>
       </c>
       <c r="C40" s="19" t="str">
@@ -2037,7 +1971,7 @@
         <v>144</v>
       </c>
       <c r="B41" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A62</f>
         <v>c7f7ab20-fbe6-476e-95c5-27c5394253ff</v>
       </c>
       <c r="C41" s="19" t="str">
@@ -2066,7 +2000,7 @@
         <v>145</v>
       </c>
       <c r="B42" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A63</f>
         <v>3840f03f-5a04-41a8-8b78-b1672f08fcb7</v>
       </c>
       <c r="C42" s="19" t="str">
@@ -2095,7 +2029,7 @@
         <v>146</v>
       </c>
       <c r="B43" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A64</f>
         <v>e8608b8f-a6b4-42fe-8ca3-bd1a5071a6a1</v>
       </c>
       <c r="C43" s="19" t="str">
@@ -2124,7 +2058,7 @@
         <v>161</v>
       </c>
       <c r="B44" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>A65</f>
         <v>ba47d50f-4b80-4115-abed-8fb61f271750</v>
       </c>
       <c r="C44" s="19" t="str">
@@ -2147,35 +2081,6 @@
         <v>1</v>
       </c>
       <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="19" t="str">
-        <f>A66</f>
-        <v>e2348467-9bd1-4e6c-8f3b-f36a7491979b</v>
-      </c>
-      <c r="C45" s="19" t="str">
-        <f>A23</f>
-        <v>086d23da-6542-46e2-88f9-e848d7df5200</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="H45" s="17">
-        <v>2</v>
-      </c>
-      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="4"/>
@@ -2692,33 +2597,6 @@
       <c r="I65" s="17"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="4"/>
